--- a/Selenium_POM_TestNG/src/test/resources/data files/testData.xlsx
+++ b/Selenium_POM_TestNG/src/test/resources/data files/testData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self-Study\Selenium\Training\Java-BDD-Automation\Selenium_POM\src\test\resources\data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Self-Study\Selenium\Training\Java-BDD-Automation\Selenium_POM_TestNG\src\test\resources\data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,9 +35,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>error_message</t>
-  </si>
-  <si>
     <t>invalid</t>
   </si>
   <si>
@@ -45,6 +42,9 @@
   </si>
   <si>
     <t>The Email field must contain a valid email address.</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
   </si>
 </sst>
 </file>
@@ -365,7 +365,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +386,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -394,13 +394,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
